--- a/public/word-templates/123_updated_placeholders.xlsx
+++ b/public/word-templates/123_updated_placeholders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Civil-Aviation-Academy-ss\public\word-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC50AC3-0782-49BB-863C-D267301F1894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05411A8-417C-4E21-B2EF-3FC6EAA19410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,13 @@
     <t>от {{order_date}}</t>
   </si>
   <si>
-    <t>Зачислить студента в Академию гражданской авиации на очную форму обучения по образовательной программе {{programs_ru}}  уровня {{type_ru}} {{statment_ru_2}}</t>
-  </si>
-  <si>
-    <t>Студент {{programs_kz}} білім беру бағдарламасы бойынша Азаматтық авиация академиясының {{type_kz}} деңгейінің күндізгі оқу нысанына мемлекеттік білім беру {{statment_kz_2}} оқуға қабылдансын.</t>
-  </si>
-  <si>
     <t>{{order_date}} ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачислить в число студентов в Академию гражданской авиации на очную форму обучения по образовательной программе {{programs_ru}} уровня {{type_ru}} {{statment_ru_2}}. </t>
+  </si>
+  <si>
+    <t>{{programs_kz}} білім беру бағдарламасы бойынша Азаматтық авиация академиясының  {{type_kz}} деңгейінің күндізгі оқу нысанына мемлекеттік білім беру {{statment_kz_2}} оқуға студенттер құрамына қабылдансын.</t>
   </si>
 </sst>
 </file>
@@ -212,9 +212,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -222,49 +219,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +565,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -582,8 +582,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -594,45 +594,45 @@
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -641,9 +641,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -652,15 +652,15 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -669,38 +669,38 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -709,20 +709,20 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="1"/>
@@ -734,14 +734,14 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -751,14 +751,14 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -768,14 +768,14 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -785,56 +785,56 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -844,120 +844,120 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
@@ -967,14 +967,14 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
@@ -984,16 +984,16 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1005,16 +1005,16 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,52 +1026,52 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="21" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1081,14 +1081,14 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1098,20 +1098,20 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="22" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="15" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="1"/>
@@ -1123,14 +1123,14 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1140,18 +1140,18 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="15" t="s">
         <v>17</v>
       </c>
       <c r="L32" s="1"/>
@@ -1161,14 +1161,14 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1178,14 +1178,14 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>

--- a/public/word-templates/123_updated_placeholders.xlsx
+++ b/public/word-templates/123_updated_placeholders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Civil-Aviation-Academy-ss\public\word-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yereke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05411A8-417C-4E21-B2EF-3FC6EAA19410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A2E7F-FAD4-4607-AE9B-F4AA8A25FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>БҰЙРЫҚТАН ҮЗІНДІ</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>{{programs_kz}} білім беру бағдарламасы бойынша Азаматтық авиация академиясының  {{type_kz}} деңгейінің күндізгі оқу нысанына мемлекеттік білім беру {{statment_kz_2}} оқуға студенттер құрамына қабылдансын.</t>
+  </si>
+  <si>
+    <t>Бексеитова Г.К.</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1130,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1135,7 +1140,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>

--- a/public/word-templates/123_updated_placeholders.xlsx
+++ b/public/word-templates/123_updated_placeholders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yereke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yereke\Desktop\Civil-Aviation-Academy-ss\public\word-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A2E7F-FAD4-4607-AE9B-F4AA8A25FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87612DF-9045-4BB5-B4BF-A6ED6FB20465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Учебный шифр   {{private_code}}</t>
   </si>
   <si>
-    <t>от {{order_date}}</t>
-  </si>
-  <si>
     <t>{{order_date}} ж</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Бексеитова Г.К.</t>
+  </si>
+  <si>
+    <t>{{order_date}} г</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="B1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -726,7 +726,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -848,7 +848,7 @@
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -858,7 +858,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="7"/>
       <c r="J16" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -1131,7 +1131,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1141,7 +1141,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
